--- a/syllabus_output.xlsx
+++ b/syllabus_output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,3937 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (SBC実践ランドスケープ)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    石川　初 
+                    松川　昌平 
+                </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_40585?locale=ja</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+原則、2024年度春学期の「SBC実践(ランドスケープ)」を履修済みであること。全日程参加すること。
+前提科目・推奨
+X1098 スチューデントビルドキャンパス（ＳＢＣ）実践（ランドスケープ）/STUDENT BUILT CAMPUS (SBC) PRACTICE (LANDSCAPE)
+</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024年度春学期の「SBC実践(ランドスケープ)」で施工したランドスケープにおいて、自分自身のプロジェクトへの具体的な貢献とそこで学んだこと、夏期のプロジェクトに期待することを600文字程度のテキストにし、教員宛（sho000@sfc.keio.ac.jp）に提出してください。
+募集締め切り：2024/07/31(水)23:59
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期の「SBC実践(ランドスケープ)」で施工したランドスケープをさらに進め、また設計したランドスケープを実際に製作する
+</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (中山間地における農業景観の研究)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    石川　初 
+                </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_29723?locale=ja</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期に担当教員の研究会を履修した学生とする。
+</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024年度春学期に担当教員の研究会を履修した学生のうち、希望者と面談して決定する
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                12
+              </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+徳島県名西郡神山町を対象地として、農村集落の景観調査、住民へのインタビュー、行政へのヒアリングなどを行い、地域資産としての農村景観を研究する。
+「文化的景観」として提唱されている概念が示すように、景観はその地域の自然環境やそこに住む人の生業を含む総体的なシステムのあらわれであり、その保全には景観を成り立たせるシステム自体の維持・継承を図る「動態的保存」が求められる。しかし、そのシステム自体はわかりやすい形で可視化されてはいず、また、地域景観の何が保全すべき対象であるかを見定める方法や価値基準も確立されているとは言えない。地域の景観の理解のためには丹念な調査と分析、検討と議論が必要である。
+神山町は傾斜地の石積みの棚田や段畑、鮎喰川沿いの農地などが織りなす山間の農村景観の美しさで知られる地域であるが、IT企業のサテライトオフィス誘致や私立の高等専門学校の設立計画が進めらるなど、今後の地域景観の急速な変化が予想されてもいる。現在、町として初めての景観計画の策定が検討されている。
+本プロジェクトでは、神山つなぐ公社の協力を得て、神山町に滞在し現地の景観調査を行い、景観計画の検討への基礎資料を作成する。また調査を通じてフィールドワークの方法を学ぶ。
+</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (アグリガーデンとウッドデッキの居場所)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    石川　初 
+                    長谷部　葉子 
+                    松川　昌平 
+                </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_42992?locale=ja</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+１．農作業・食に畑づくり、野菜づくりからとことん携わることが好きで、体を動かして地域の方々との協働作業に専念し、楽しめる人
+２．古い竈や納屋の修復・リノベーション、そして屋外調理場などのDIYに最小の財源で最大の効果を生む知恵を絞って、実際に大工の皆さんの指導を受けて、作りあげることが好きで、専念できる人
+３．古民家のウッドデッキのデザイン、施工を地域の方と一緒に検討し、共に作りあげることが好きで、夢中になって取り組める人
+４．健康で、人とのコミュニティづくり、場づくりが好きで、実際にみんなで限られた条件の中で、実装する、作りあげることに本気になれる人
+５．本プロジェクト３名の担当教員の研究会または、担当授業の履修経験があり、また履修予定で、その理念に共感及び理解があるひと
+５．目の前にある環境と人間関係を、ポジティブに考え、楽しみ、着実に構想を実現できる人
+前提科目・推奨
+X1032 スチューデントビルドキャンパス（ＳＢＣ）実践/STUDENT BUILT CAMPUS (SBC) PRACTICE
+X1035 スチューデントビルドキャンパス（ＳＢＣ）入門/INTRODUCTION TO STUDENT BUILT CAMPUS(SBC)
+X1036 スチューデントビルドキャンパス（ＳＢＣ）実践（建築Ａ）/STUDENT BUILT CAMPUS (SBC) PRACTICE (ARCHITECTURE A)
+X1037 スチューデントビルドキャンパス（ＳＢＣ）実践（建築Ｂ）/STUDENT BUILT CAMPUS (SBC) PRACTICE (ARCHITECTURE B)
+</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修選抜は、志望動機エッセイと面接の2段階で行い、面接の合格者を最終的な履修者とします。
+１．第一次選抜：志望動機エッセイを６月３０日23:59までにhapp3248@sfc.keio.acまで、件名「特別研究プロジェクト選抜課題」で提出してください。
+テーマは「１．本プロジェクトで自分が特に力を発揮できると思うこと、実現したいこと。（500字程度）」「２．暮らしに根付いた大学と地域の両方に開かれた「居場所」として実現したい「居場所」とは。（500字程度）」「３．そんな「居場所」を一個人として、どのように、どのような頻度で、誰と、足を運び、活用したいか。（500字程度）」
+２．第一次選抜合格者は第二次選抜として面接を実施、面接実施候補日は、7月9日‐12日で調整して行います。
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本特別研究プロジェクトは、サステナブルキャンパス実現を目指した、「農と食」分野からの取り組みです。サステナブルキャンパスとは、大学の専門領域を地域に開き、点在させ、そしてまた地域の「農と食」という歴史と伝統のある地域性とその知恵を大学に開き、融合してゆくことを目指しています。現在その研究活動拠点としてお借りしている、御所見地区にある古民家を「農と食」を中心とした、地域と大学融合型の暮らしに根付いた「居場所」（研究活動拠点）としての機能を、家屋及び家屋に付随する農地と合わせて、地域の方と研究室で作りあげ、実践の場としての機能、環境整備を本講義の目的とします。庭園のように美しく、コミュニティとして農業に携わり、過ごすことができる、アグリガーデンのデザインと実装、古民家のウッドデッキ、ベンチ、納屋、竈の復活、屋外キッチンの段階的なデザインと実装をおこなうことで、地域と大学とが協働で作りあげる場を実現します。
+</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (コンゴ民との持続可能な共同研究構築)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    長谷部　葉子 
+                </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_35336?locale=ja</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1. Undergraduate &amp; Graduate school students who belong to Hasebe Kenkyukai
+2. Can participate all the schedule of the project
+3. students who can cover all the budget for the fieldwork on their own
+前提科目・推奨
+Asia and African Global Connection
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+Interviews with Yoko Hasebe and project members, Interviews will be held on July 20th on campus.
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                6
+              </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+This projects aims to use SFC trans-disciplinary knowledges to create an academic network of connected institutions with SFC as the Japan hub. Increased global interest in Japanese language and cultures has led to government support for cultural outreach programs with a focus on support for policy initiatives in the Asia-Africa corridor. The development of direct student-to-student connectivity and innovative materials has lagged. This project will utilize SFC resources to:Develop student-centered connections with institutions supporting Japanese studies (ISP-gombe DRC,  etc.).Create an interactive academic network on Japanese studies ,and p-to-p diplomacy portals.
+</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (コミュニケーション能力の習得研究)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    中浜　優子 
+                </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46865?locale=ja</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+第二言語習得研究について基礎的知識があること。担当教員の研究会A, もしくは第二言語習得論, Introduction to language learning and teachingを履修していること。特プロ履修後, 引き続き研究会を履修し,  (可能であれば）そのまま卒プロまでを関連テーマで進めてもらえたら効果的な学びができると考える。真面目な学生の参加を募る。
+前提科目・推奨
+第二言語習得論　もしくは　Introduction to language learning and teaching(GIGA)を推奨します。
+C1167 第二言語習得論/SECOND LANGUAGE ACQUISITION
+C1168 第二言語習得と外国語教育入門/INTRODUCTION TO SECOND LANGUAGE LEARNING AND TEACHING
+</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会及び講義科目授業にて募集。履修希望者は7月31日までに担当教員にメールをすること。nakahama@sfc.keio.ac.jp
+募集締め切り/Application Due：2024/7/31
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+担当教員が開講する研究会Aでは, 第二言語（外国語）でのコミュニケーション能力の習得について探求している。理論・方法論の理解から始まり, 各履修者が興味のある領域に焦点を絞り, 個人研究を進めてもらっている。本特別研究プロジェクトは, 「コミュニケーション能力」を解明するため, 特に語用論的能力習得に焦点を置き, 言語（発話）行為, 談話, ストーリーテリングをはじめとする様々なアクティビティを遂行する際における言語使用を考察することを目的とする。その際, 学習者の母語, 習熟度や学習環境の影響なども見ていく。講義は 主に日本語で行うが, 文献は英語のものを多く講読予定である。（英語力に不安がある学生は講義開始前に余裕を持って教員に相談すること。）学部生の特プロではあるが, 第二言語習得に興味のある大学院生の履修も認める。ゲストスピーカーによる講義も何回か予定している。
+履修者は, 事前課題として, 特別研究プロジェクト開始までに講読論文を読んでディスカッションができるところまで深く学習しておくことが望ましい。教員側の承認を得, 履修が確定した段階で, スラック等で演習の担当を決めるので, それについては発表できるようにしておくこと。特に自分が担当することになった文献に関する論文をいくつか読んだ上で, 当該領域で分かっていること, 分かっていないことを整理しておくとよい。
+特別研究プロジェクトでは, 自分が担当した講読論文を発表し, 履修者間でのグループディスカッションをし, 批判的な論文の読み方, 研究の良し悪しの判断の仕方などについてさらに深く学ぶ。特プロ最終日は, 学んだ内容を踏まえ, 自身のパイロット調査のデザインまでをまとめて口頭発表を行う。
+</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (都市空間の脱植民地化と地域性の発展)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    シェッダーディ，　アキル 
+                </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_39167?locale=ja</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+原則としては、シェッダーディ・アキル研究会履修者であること。
+その他、面接による選考を経て、参加可能な場合もある。
+前提科目・推奨
+特になし
+関連科目
+特になし
+</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+春学期にシェッダーディ・アキル研究会を履修した学生を優先します。
+シェッダーディ・アキル研究会以外の受講希望者は、2024年7月26日までにシェッダーディ・アキルにメール(aqil@sfc.keio.ac.jp) で連絡し、面接により選考します。
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+香港とマカオでフィールドワークを行い、脱植民地化期の都市空間における地域のアイデンティティと個性の発展と保全を検証する。フィールドワークの準備研究段階とフィールドワーク結果の発表は国内で行う。
+</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (市井の民家の生きられた保存について)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    中川　エリカ 
+                </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48883?locale=ja</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年春学期の中川エリカ研究会を履修していること（ただし、講義概要を踏まえて強い興味を持ち、担当教員が許可した場合は履修可能とする）
+</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+7月15日までに担当教員にメールにて連絡すること。
+メールの件名に、「特プロA履修希望」と必ず書くこと。（記載していないメールは見落とす可能性が高いです）
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+市井の民家の生きられた保存というテーマに基づき、敷地の既存状況を読み取り、自主施工の方法を学び、効果を現地で体験し、議論することから探求する。
+今期の特別プロジェクトAにおいては、在来木造の工法を応用的に展開した架構の施工をプロの施工者と協働することを通じて、建築力学を目の前の建築から体感する。
+大学の講義では得られない学びを現地での講義・演習から得ることを目指す。
+</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (メカトロニクス設計の高度化)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    中西　泰人 
+                </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46213?locale=ja</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+中⻄研究会を履修中もしくは秋学期より履修予定のこと。
+</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+7月30日に実施予定の研究会最終発表会にて告知する
+募集締め切り：2024/08/06
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+メカトロニクスの要素となる電子工作やプログラミングの初心者を対象として、実践を通じてより高度なスキルを獲得する。
+</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (自治体組織のエンゲージメント・組織変革)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    清水　たくみ 
+                </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48873?locale=ja</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+清水たくみ研究会履修者（2024年秋学期からの新規履修決定者も含む）であること。また、長崎県壱岐市への出張・宿泊を伴う研究プロジェクトであることを理解の上、履修すること。
+前提科目・推奨
+清水たくみ研究会（A型）
+</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会にて詳細を告知。履修希望者は8/14までに担当教員に対して応募。
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+長崎県壱岐市と連携し、自治体組織のエンゲージメント・組織変革について共同で研究および社会実践を実施する。壱岐市が実施した組織内エンゲージメントサーベイを履修者の視点からデータ分析し、今後の働き方および組織のあり方について提言を行う。また、実際に現地で壱岐市職員へのヒアリングも実施し、その内容をもとにした提言も実施する。
+</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (シリコンバレー型起業演習)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    保田　隆明 
+                </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48872?locale=ja</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+過去、現在の研究会履修⽣
+</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会の履修者による⾃⼰推薦、他薦。履修希望者は6月27日までに担当教員にメールで連絡のこと
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+新規事業立案と遂行に関して、シリコンバレーではどのようなアプローチが採用されているのか、そしてそれらは日本でのものとどのように異なるのか、アカデミック的観点と実務的観点の両面から学習し、新規事業立案エコシステム構築に関しての学術的および実務的示唆を獲得する
+</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (新しいテクノロジーの社会的受容)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    華　金玲 
+                </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48152?locale=ja</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本研究会の履修者か履修を希望している者
+</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+「デジタル政策とメディア利用」研究会の履修・修得を推奨する。
+履修希望者は志望理由を書き、7月10日までに華(hana@sfc.keio.ac.jp)までメールで送ってください。
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+　この特プロでは、第5世代携帯電話システム（5G）やChatGPT、メタバースなどのデジタルメディアや新しいテクノロジーの利活用について幅広く取り上げ、アウトプット思考でアプローチする。研究手法としては事例調査分析、アンケート調査分析、ソーシャルメディアデータ分析を計画している。上記の分析手法が可能、もしくは習得したい学生の参加を歓迎する。
+</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (AIシステムの調査)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    川島　英之 
+                </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46851?locale=ja</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+学生はコンピュータサイエンスに関して、教員が認めるレベルの知識を持っていること
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+担当教員との面談 + 研究会学生からの推薦を得ること
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+AIシステムに関する最新論文を読んで輪読する。
+</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (Design and Geometry)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    鳴川　肇 
+                </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_42993?locale=ja</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+このプロジェクトに参加する学生は，
+1. 鳴川研究会に所属していること。または履修を考えている。
+2. ライノ，イラストレータを用いてデザインを表現できること。
+3. 模型制作する技術を持っていること。
+が望ましい。
+前提科目・推奨
+B6028 デザインスタジオ基礎/BASIC DESIGN STUDIO
+B6029 デジタルデザイン基礎/BASIC DIGITAL DESIGN
+C2017 地球システム設計論/THEORY OF EARTH SYSTEM DESIGN
+C2119 ノーテーションと表現/NOTATION AND EXPRESSION
+B6103 デザイン観察基礎/DESIGN OBSERVATION
+関連科目
+デザインスタジオA
+ デザインスタジオB
+ デザインスタジオC
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+これまで大学の授業，研究会においてあなたが制作した作品写真を１枚をjpegでメールで提出してください。
+宛先：narukawa@keio.jp
+メール件名：24SUMMERPROJECT 
+ファイル名：アルファベットでFAMILYNAME-FIRSTNAME.jpg
+としてください。
+締切：7月31日
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                25
+              </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+このプロジェクトは私企業と共同で取り組んでいる複数のデザイン開発案件に集中的に取り組みます。これらのデザイン案件はプロダクトとして完成して市場に投入することを前提としています。そのため皆さんが通常の学期中に履修しているデザインの授業とは違います。
+</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (先端技術応用実践)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    武田　圭史 
+                </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_44269?locale=ja</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+２０２４年度春学期研究会A（武田圭史）を受講していること。
+前提科目・推奨
+A1101 研究会Ａ/SEMINAR A (武田圭史)
+関連科目
+A1101 研究会Ａ/SEMINAR A (武田圭史)
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024年春学期研究会A(武田圭史)への参加および研究活動の状況を見て判断します。
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                35
+              </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+先端技術を応用した実践的な研究プロジェクトの実施を通じて研究実施の手法を習得します。対象分野はUAV・ロボティクス、生成AI、AR/VR、映像制作(CG/実写)を想定していますがその他の分野を希望する場合は個別に相談に応じます。学期初めに具体的なプロジェクトゴールを設定し個人またはチームで研究プロジェクトを実施、テーマ発表、サーベイ発表、中間発表、最終発表および論文の作成を実施します。
+</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (ソーシャルマーケティングの実践研究)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    玉村　雅敏 
+                </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46219?locale=ja</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・ソーシャルマーケティングの実践やプロダクト開発に興味があること
+・実践を通じた研究推進を行えること
+・時間外のグループワークや調査活動を行えること（自主調査活動があります）
+・研究会（玉村担当）に所属していること
+・玉村研究室のプロジェクトにすでに関わっていること
+前提科目・推奨
+C1032　ソーシャルマーケティング/SOCIAL MARKETING
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会（玉村担当）所属生、授業（ソーシャルマーケティング）履修者への募集を行う。
+募集締め切り：2024/7/31
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+この特別研究プロジェクトでは、ソーシャルマーケティングの基本的なコンセプトや発想、手法、変遷などを学んだ学生が、協力関係にある行政機関や企業、社会福祉法人による支援のもと、様々な調査・研究・開発活動などを行いながら、具体的なプロダクト開発に取り組む。
+</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (非モデル生物を活用したWETバイオ実習)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    黒田　裕樹 
+                </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46588?locale=ja</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+教員である黒田裕樹に先に連絡をして、認められたもの。
+</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究室内ゼミにおいてアナウンスする。
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SFC内に存在するWet-Bio棟では、遺伝子の導入や生物の顕微鏡観察ならびに小型水棲生物の飼育など、様々な実験が可能である。参加者は普段から特定の生物の有する生命現象に興味を抱いている者になる。まず各人がそれぞれの研究内容を全体で共有した上で、その疑問点や解決方策を討議し、その前提の下、サーベイをするとすれば何が考えられるかを討議する。各人はそれに従い、実験を実施する場合の綿密な計画をたてて、その進展内容を発表する。
+</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (アルゴリズミックデザイン実践)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    松川　昌平 
+                </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_47502?locale=ja</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+デジタルデザイン基礎、デザインスタジオ基礎、デザインスタジオのいづれかを履修済みで、かつ、それらの授業の最終成果物の作品があること。
+関連科目
+B6028 デザインスタジオ基礎/BASIC DESIGN STUDIO
+B6029 デジタルデザイン基礎/BASIC DIGITAL DESIGN
+C2018 デザインスタジオ（住まいと環境）/DESIGN STUDIO(HOUSING AND ENVIRONMENT)
+C2019 デザインスタジオ（自然と建築）/DESIGN STUDIO(LANDSCAPE AND ARCHITECTURE)
+C2020 デザインスタジオ（都市と建築）/DESIGN STUDIO (ARCHITECTURE AND URBANISM)
+</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024/07/31 23:59までにデジタルデザイン基礎 or デザインスタジオ基礎 or デザインスタジオの最終成果物をPDFで提出すること。
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+これまでに履修してきたデザインスタジオ等でアナログ的な手法で設計した設計案をアルゴリズミックデザインの手法を用いて再設計する。
+</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＡ (ロボット・アバターのELSI課題研究)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    新保　史生 
+                </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_47108?locale=ja</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期までに新保研究室に在籍しており，かつ2024年度秋学期も新保研究会に在籍する者
+</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修条件に適合することを確認し、特別研究プロジェクトの履修希望を申請してください。
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+AI・ロボット・アバター共生社会における技術の発展に伴うELSI課題の議論
+この講義では、AI・ロボット・アバター共生社会におけるELSI課題（倫理的、法的、社会的課題）の知見を広げることを目指す。現代の技術の応用性や展開性に着目しながらその社会実装に伴うELSI課題にフォーカスし、講義と演習を通じて、AI・ロボット・アバター共生社会におけるELSI課題研究の最新の知見を獲得する。具体的には、現行の技術がどのように応用されているか、将来の展開性等について議論し、予想されるELSI課題について分析を行う。
+</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (運動神経科学演習)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    牛山　潤一 
+                </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_41793?locale=ja</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・	牛山潤一研究会の履修者
+・	プログラミング言語MatlabをノートPCにインストール済みの者
+・	第18回Motor Control研究会（2024年8月22日〜24日／大阪大学）に参加・発表の意志のある者
+前提科目・推奨
+C2117 運動の生理と心理/MOVEMENT PHYSIOLOGY AND PSYCHOLOGY
+B6132 感覚の生理と心理/INTRODUCTION TO SENSORY PHYSIOLOGY AND PSYCHOLOGY
+C2025 スポーツ科学（GIGA）/INTRODUCTION TO SPORTS SCIENCE（GIGA）
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+春学期研究会内でアナウンスします． 
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                25
+              </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本プロジェクトでは，2024年度前半に積み上げてきた自身の研究をさらにブラッシュアップし，重厚な関連研究の調査から自身の研究の意義を明確化するとともに，夏休みの時間を利用してさらなるデータ収集＋解析を図ることで，自身の研究の背景〜方法〜結果〜考察をより重厚なものとしていく．最終的にはこれを抄録、ショートプレゼンテーション、ポスターにまとめあげ，2024年8月末に開催される第18回Motor Control研究会の発表へと接続する．
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (防衛産業を理解する（2024）)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    藤田　元信 
+                </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48889?locale=ja</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+見学会への参加に際して、受け入れ先の提示する条件に従うこと。（例えば、日本国籍の保有、許可のない撮影や見学内容のSNSなどへの投稿の自制が求められることが考えられます。）
+前提科目・推奨
+C1043 科学技術政策/SCIENCE AND TECHNOLOGY POLICY（２０２４春学期）
+技術戦略研究会（２０２４春学期）
+関連科目
+C1149 国家と防衛/STATE AND DEFENCE（２０２４春学期）
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+原則として、２０２４年春学期「科学技術政策」「技術戦略研究会」の履修者を対象とします。
+「技術戦略研究会」の履修者を優先し、履修者数の上限に達するまで「科学技術政策」の履修者の受け入れも先着順にて行います。
+履修希望者は担当教員までその旨を連絡してください。
+上記科目の履修者以外の場合、個別調整により若干名を受け入れます。履修を希望する理由（日本語で400字程度、上限なし）を添えて担当教員までメールでご連絡ください。
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                8
+              </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+２０２２年１２月に公表された国家安全保障戦略及び国家防衛戦略において、防衛生産・技術基盤は、自国での装備品の研究開発・生産・調達を安定的に確保し、新しい戦い方に必要な先端技術を防衛装備品に取り込むために不可欠な基盤であり、我が国にとっての防衛力そのものと位置づけられた。現在、我が国の防衛生産・技術基盤はどのようになっているのだろうか？本プロジェクトでは、講義、模型製作、施設見学を通じて、我が国の防衛生産・技術基盤を支える主要なアクターに関する総合的な理解を試みる。
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (日本社会における組織変革・社会変革)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    吉井　弘和 
+                </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48176?locale=ja</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1. 吉井研究会所属であること
+2. 本プロジェクトはSBCにおける合宿形式での開催を想定しており、交通費・宿泊費を負担できること。
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+今回の本特別研究プロジェクトは2024年度春学期の吉井研究会履修者のみを対象としています。担当教員宛てに研究会slackにて履修希望連絡を行ってください（〆切：7月1日23:59）。
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                13
+              </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本プロジェクトは、「ロバート・キーガン (2013)『なぜ人と組織は変われないのか――ハーバード流 自己変革の理論と実践』英知出版」を参考に、研究会内の個人と組織に焦点を当て、組織変革や社会変革のプロセスを実践的に体験することで、変革リーダーの資質を養うことを目的としている。具体的には、同書の方法論に沿って、組織や個人の達成目標とそれに対する免疫マップの作成を行い、固定観念の検証計画を立てていく。その際、集団が生活を共にして自己開示しやすい空間とすることを重視して合宿形式のプロジェクトとする。こうした活動を通じて、組織や個人が「変革できる余地がある」と考えられる部分を明確にする。
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (先端生命科学3)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    荒川　和晴 
+                </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48162?locale=ja</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期の先端生命科学研究会
+（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+先端生命科学研究会で告知する。 
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+生命は複雑すぎて、その全体像を理解することは到底不可能だと思われていました。しかし21世紀に入り、ゲノムをはじめとする大量の生物情報が解析可能になったことから、ITを駆使することで生命を理解することが夢でなくなりました。
+「システム生物学」は生物を統合的に理解することを目指す学問で、生命現象の本質に迫る重要な分野として近年注目を集めています。SFCは四半世紀前からこの分野を開拓してきた世界的なパイオニアです。
+システム生物学の応用分野は医科学・地球環境・食品から生命の起源・進化の解明まで、無限に広がっています。本特別研究プロジェクトではそのような幅広い先端生命科学領域の中での特定のテーマについて期間集中型の研究を行います。
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (先端生命科学2)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    荒川　和晴 
+                </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46847?locale=ja</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期の先端生命科学研究会
+（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+先端生命科学研究会で告知する。 
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+生命は複雑すぎて、その全体像を理解することは到底不可能だと思われていました。しかし21世紀に入り、ゲノムをはじめとする大量の生物情報が解析可能になったことから、ITを駆使することで生命を理解することが夢でなくなりました。
+「システム生物学」は生物を統合的に理解することを目指す学問で、生命現象の本質に迫る重要な分野として近年注目を集めています。SFCは四半世紀前からこの分野を開拓してきた世界的なパイオニアです。
+システム生物学の応用分野は医科学・地球環境・食品から生命の起源・進化の解明まで、無限に広がっています。本特別研究プロジェクトではそのような幅広い先端生命科学領域の中での特定のテーマについて期間集中型の研究を行います。
+</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (XRとロボティクスで人々の繋がりを紡ぐ)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    高汐　一紀 
+                </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46596?locale=ja</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+高汐研究会を履修中であることが望ましい。
+</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024年度春学期に担当者の研究会を履修していることを推奨する。本プロジェクトの履修希望者は、7月12日（金）までにメールにて応募すること。
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                12
+              </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Augmented Town 研究プロジェクトでは、XR とロボティクスにおける最新技術を駆使した新しい街のプラットフォームを、鳥取県内の特定地域をモデルケースに構築することを目指す。本特別研究プロジェクトのキーワードは「拡張」である。地域の古き良き部分を残しつつ、「いま」に合わせて様々な技術を導入し、街に新たな価値と存在感を生み出す仕掛けをプロトタイプする。
+</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (SFC周辺地域における交流の場づくり)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    石川　初 
+                </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46250?locale=ja</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本プロジェクトの趣旨を理解し、実践に参加する意志のある総・環・看の学生。本特別研究プロジェクト後も継続的に関わることが推奨されます。
+前提科目・推奨
+建築系のデザインスタジオ、またSBC実践（建築）やSBC実践（ランドスケープ）等の履修経験があると有利ですが、必須ではありません。
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+SFCおよび周辺を歩いて観察し、誰もが快適かつ安全に歩くことができるというインクルーシブデザインの観点から「改善が可能な箇所」および「休憩や交流の場としての可能性がある箇所」を見出し、写真に撮って現状と提案のための簡単なアイデアを書き加えて、PDF形式のファイルにして提出してください。A42枚態度にまとめ、写真とテキストを見やすくレイアウトしてください。7月15日までに、メールに添付して石川初（hajimebs@keio.jp）あてに送ってください。
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                12
+              </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本特別研究プロジェクトは「SFCを含む遠藤地区のウォーキングコース」の構想と、木製ベンチの制作・設置を行うものです。
+「サステナブルでインクルーシブな地域」を実現するための課題として「歩行」は欠かせないものです。カーボンニュートラルなど環境的観点からも、予防医学的・公衆衛生的観点からも、そして地域の共同体の醸成や景観的観点からも「歩くこと」は称揚されます。しかし、SFC周辺地域は休憩施設が少ないために散歩がしにくく、またSFCと周辺地域はあまり歩行者の交流がないのが現状です。本特別研究プロジェクトでは、キャンパスと周辺のフィールドワークによって現状を把握し、専門家のアドバイスを得てインクルーシブデザインに基づいた、交流の場の契機をつくるベンチや椅子をデザインし、プロトタイプとしていくつかのベンチを試作します。完成したプロトタイプは社会実験としてキャンパス内外に設置する予定です。
+</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (人間の視覚と行動に関する研究)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    加藤　貴昭 
+                </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46210?locale=ja</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期の研究会を履修していることが望ましい
+前提科目・推奨
+A1101 研究会Ａ/SEMINAR A
+</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+2024年7月12日までに、hpl@sfc.keio.ac.jp宛に志望する旨を連絡してください。
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                50
+              </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+主にスポーツ心理学および人間工学の領域から、各種環境下における眼球運動計測、行動分析、主観評価手法を通じて、人間の基本的な行動特性について検証する。授業では現状分析、実験環境の構築、研究条件の立案、本実験の実施、解析、さらに研究発表および講評を行う。
+</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (ライフスキルを目指したスポーツ)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    東海林　祐子 
+                </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_45164?locale=ja</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度秋学期東海林研究会履修予定者
+</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会内で告知募集締め切り/Application Due：2024/7/25
+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                40
+              </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+このプロジェクトでは、アスリートのモチベーションを高め、自らの目標を達成に導く学生コーチのための方法を、心理学的アプローチで探る。研究対象者は、SFCのスポーツチームのコーチングを担当する学生である。学生コーチは、経営者でもなければ選手でもないため、ジレンマに陥りがちである。監督のような権力はなく、選手と対等な立場である。しかし、チームメンバーへの指示は求められる。このようなジレンマがある中で、学生コーチが選手のやる気を引き出すためには、どのようなアプローチが有効なのか。介入実験を通じて、その有効な方法を探る。
+</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (SDGsの理論と実践)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    蟹江　憲史 
+                </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_44808?locale=ja</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・持続可能な開発目標（SDGs）の実践やSDGs実施のガバナンスを明らかにすることに関心があること
+・時間外のグループワークや調査活動に参加できること
+・基本的に春学期研究会履修者及び秋学期研究会履修予定者に履修を限定する
+前提科目・推奨
+B6036 グローバルガバナンス/GLOBAL GOVERNANCE
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+春学期研究会授業時間内に発表、選考する。
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2015年9月に国連加盟国の全会一致で採択された持続可能な開発目標（SDGs）は、政府だけでなく、自治体、企業、そして市民社会においても、その達成に向けた取り組みが行われている。SDGsの採択から約5年が経過し、国連は2020年からSDGs達成期限の2030年を「行動の10年」と位置づけ、目標達成に向けた行動を世界中で加速させることを求めている。この特別研究プロジェクトでは、企業等と協働し、どのようにSDGsを実践していくかを検討する。
+</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (先端生命科学1)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    荒川　和晴 
+                </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_44264?locale=ja</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期の先端生命科学研究会
+（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+先端生命科学研究会で告知する。 
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+生命は複雑すぎて、その全体像を理解することは到底不可能だと思われていました。しかし21世紀に入り、ゲノムをはじめとする大量の生物情報が解析可能になったことから、ITを駆使することで生命を理解することが夢でなくなりました。
+「システム生物学」は生物を統合的に理解することを目指す学問で、生命現象の本質に迫る重要な分野として近年注目を集めています。SFCは四半世紀前からこの分野を開拓してきた世界的なパイオニアです。
+システム生物学の応用分野は医科学・地球環境・食品から生命の起源・進化の解明まで、無限に広がっています。本特別研究プロジェクトではそのような幅広い先端生命科学領域の中での特定のテーマについて期間集中型の研究を行います。
+</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (スマートセンシング演習)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    中澤　仁 
+                    大越　匡 
+                </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_32007?locale=ja</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+慶應義塾大学 湘南藤沢キャンパス「中村・楠本・高汐・バンミーター・植原・三次・中澤・手塚・武田合同研究プロジェクト」に属するいずれかの教員の研究会を履修していること
+</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会の授業中に募集します。募集締め切り/Application Due：2024/7/11
+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                30
+              </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+実空間や人から画像や音声、加速度などのセンサデータを獲得して知的に処理するソフトウエアシステムを構築し、評価し、論文を執筆します。担当者が実施している研究プロジェクトに参加して、実践的な研究開発を推進します。
+</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (脳情報解析実習)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    青山　敦 
+                </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_40583?locale=ja</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期において，研究会A「脳情報の計測と解析」を履修している，もしくは履修を予定していることを推奨する．履修を希望する学生は，2024年7⽉31⽇までに教員に連絡する．
+</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+脳情報解析の事前準備を⾏い，簡易な脳情報解析に関する事前課題を2024年8⽉31⽇までに提出すること．
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+近年，⼈間の脳神経の活動を⾮侵襲に計測する様々な⼿法が出現し，⼈間の脳を客観的に調べることができるようになってきた．研究会A「脳情報の計測と解析」においては，未知の脳機能を調べるための計測⼿法や解析⼿法を学び，実際にグループや個⼈で計測と数理解析を⾏ってきた．しかし，脳情報解析に関する詳細について，基礎から実践までを包括的に学ぶ機会は十分に足りていなかった．本特別研究プロジェクトにおいては，脳情報解析に関する準備を⾏い，それに基づく簡易な事前課題を提出してもらう（2024年8⽉31⽇締め切り）．プロジェクトでは，まず脳情報解析の基礎に関して，講義や資料を介して学ぶ．次に，学んだ内容を脳データに対して適用し理解を促進した上で，履修者同⼠で互いに発表し合う．最後に，学んだ内容を最終課題としてウェブ上で纏めてもらう（2024年9⽉30⽇締め切り）．
+</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (日本語デジタルストーリーテリング)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    杉原　由美 
+                    伴野　崇生 
+                </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_47499?locale=ja</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+日本語レベルが初級～中級で、日本語インテンシブ科目を履修したことがある学生。
+上記以外の学生が受講を希望する場合には、担当教員に7月3日までに相談すること。
+前提科目・推奨
+B2285 日本語インテンシブ初級１/JAPANESE INTENSIVE - ELEMENTARY 1
+B2286 日本語インテンシブ初級２/JAPANESE INTENSIVE - ELEMENTARY 2
+B2281 日本語インテンシブ１/JAPANESE INTENSIVE 1
+B2282 日本語インテンシブ２/JAPANESE INTENSIVE 2
+B2283 日本語インテンシブ３/JAPANESE INTENSIVE 3
+</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+参加を希望する学生は、7月10日までにこちらのフォームに必要事項を入力して送信してください。選抜の結果は7月15日ごろメールで知らせます。
+https://forms.gle/hAcq8HWaHPaBvFQG9
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+日本語でデジタルストーリーテリングの作品を作成します。デジタルストーリーテリングは、自分について語る3分ぐらいの動画です。それぞれの日本語レベルに合わせた日本語を使って、写真や映像と合わせたストーリーを作成します。自分について話したり、スクリプトを書いたり、話し合ったりしながら、日本語のスキルアップを目指します。最後に作品をシェアし、お互いのことを知り、考えを共有します。
+</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (居場所を起点としたセーフティネット構築)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    山田　貴子 
+                </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48886?locale=ja</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修を希望する学生は7月12日までに担当教員にメールで連絡をすること。今学期担当教員の研究会を履修している、または来期の履修を希望していることを推奨。
+</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+神奈川県湯河原町の2つの多世代の居場所を訪問し、居場所を起点としたセーフティネット構築について学ぶ。また、現地の子どもたちや若者たちと共に中高生若者会議を企画し、湯河原町の未来づくりに貢献する。これを通じて、自身の研究に役立てるとともに、社会の前進に寄与することを目指す。
+</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (スポーツビジネス)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    水鳥　寿思 
+                    千田　健太 
+                </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48885?locale=ja</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+研究会A「スポーツパフォーマンス」または千田健太先生が担当する研究会Aの受講経験を有するもの。あるいはスポーツビジネスに関する知見を有するもの
+前提科目・推奨
+研究会A(担当：水鳥寿思または千田健太)
+関連科目
+B6168 トップスポーツ論/TOP SPORTS THEORY
+</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修希望者は6月30日までに担当教員にメールで連絡する。担当教員の研究会履修を推奨する。
+</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                35
+              </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本講義はスポーツビジネスのフィールドワークとして藤沢市を拠点に活動するプロバスケットチーム「湘南ユナイテッドBC」と連携し、スポーツの普及に取り組ります。
+</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (中国語動画教材の開発)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    宮本　大輔 
+                </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48871?locale=ja</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+以下のいずれかの条件を満たし、全ての日程に参加できる者。①中国語学習経験のある者、②中国語を母語とする者、③動画撮影技術・経験のある者
+関連科目
+B2231 中国語インテンシブ１/CHINESE INTENSIVE 1
+B2232 中国語インテンシブ２/CHINESE INTENSIVE 2
+B2233 中国語インテンシブ３/CHINESE INTENSIVE 3
+B2234 中国語インテンシブ４/CHINESE INTENSIVE 4
+B2131 中国語ベーシック１/CHINESE BASIC 1
+B2132 中国語ベーシック２/CHINESE BASIC 2
+B2133 中国語ベーシック３/CHINESE BASIC 3
+</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+以下のGoogle Formに、本プロジェクトに参加を希望する意気込みを理由と共に記述してください（2024年8月31日締切）。
+https://forms.gle/Y1QcgNQtFv9nrM6z7
+</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                30
+              </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+現在SFCでは、独自の教授法（直接導入法）に基づいた、中国語教育を行っています。そのなかで、重要な位置づけにあるのが、教科書の本文に準拠した動画教材です。本特別研究プロジェクトでは、近い将来、SFCにおける中国語クラスで使用する動画教材を作成します。
+</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (アイヌ語の言語復興の現場から学ぶ)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    藤田　護 
+                </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_45889?locale=ja</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+基本的に担当教員の研究会B(2)「SFC kotan――アイヌ語とアイヌ語口承文学を学ぶ」を履修している学生に限定する。
+前提科目・推奨
+アイヌ語の言語と文化
+研究会B(2)「SFC kotan――アイヌ語とアイヌ語口承文学を学ぶ」
+A1102 研究会Ｂ/SEMINAR B
+</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+担当教員にメールを通じて、本プロジェクトへの参加の意思を表明してください。
+</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+アイヌ語とアイヌ文化の学習と研究を進めてきている学生を対象として、実際のアイヌ語復興の現場を訪ね、最新の取り組みについて見聞を深めるとともに、アイヌ語・アイヌ語文化の実習を行う。
+</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (オーラルヒストリーの実践と検討)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    清水　唯一朗 
+                </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_45180?locale=ja</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・日本語、もしくは英語で、日本に関する自身の研究テーマについて報告、討論ができること。
+・現地集合、現地解散となるため、鉄道予約・宿泊先の確保などをはじめ、自身で移動を行えること。
+関連科目
+研究会B2（清水唯一朗担当）
+A1102 研究会Ｂ/SEMINAR B
+</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+7月18日（木）までに、報告予定のテーマについて、A4、PDFで1枚にまとめて担当教員 yuichiro@sfc.keio.ac.jp までメールでお送りください。また、報告を希望される言語（日本語or英語）を明記してください。
+</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SFCオーラルヒストリー研究会では、2009年以来、「聴くこと」を実践するフィールドワークと研究発表を行うことで、学期中の教室でのゼミを超えた理解を深める機会を持っている。十分な事前調査のもと、現場で人生、社会、歴史を感じ、各自の研究、プロジェクトの展開に寄与することを目指す。
+</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (五島列島の自然環境と生物相)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    一ノ瀬　友博 
+                </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_39160?locale=ja</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+フィールドワークには長時間の歩行を伴います。それだけの体力が必要です。シュノーケリングを行うので、泳げること。
+前提科目・推奨
+研究会「ネイチャーポジティブ」、研究会「ランドスケープ研究」
+</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+この特別研究プロジェクトに参加を希望する理由を記載してメールで送って下さい。締め切りは7月12日です。
+</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                5
+              </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+五島列島は九州の西に位置する群島で、全域が長崎県に属している。また全域が西海国立公園に指定されている。朝鮮半島に近く、歴史的にも大陸の影響を強く受けてきた地域である。特別研究プロジェクトでは、五島列島のうちでも最大の島である福江島を訪れ、その独特の自然環境と文化を学ぶ。特に渡り鳥が大陸に向かって旅立つ中継地としても有名であるため、ハチクマなどの渡りを観察する。
+</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (生命現象のモデル化とシミュレーション)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    内藤　泰宏 
+                </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46220?locale=ja</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+事前に担当教員と面談し、履修許可を得ること。
+</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+研究会で告知する。
+原則として、内藤研究会を履修中の学生の履修を想定している。それ以外の履修希望者は担当教員にメールで相談すること（ynaito@sfc.keio.ac.jp）。プロジェクト遂行に用いる基本的な技術をこの授業の時間内で手解きすることはないので、必要なスキルを修得済みであることが履修条件になる。
+担当教員と対面で面接を実施し、履修許可の可否を決める。
+募集締め切り：2024/07/05
+</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                5
+              </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+生命の最大の特徴のひとつに動いていること、動きつづけることがあげられる。生命システムは、動くことによって環境と相互作用し、環境中に自らの存在を維持している。本プロジェクトでは、コンピュータシミュレーションを用いて、生命システムの動きを捉え、その動作原理の理解に取り組む。
+</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (裁判実務と判例を学ぶ)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    長谷川　福造 
+                </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48149?locale=ja</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度秋学期に担当者の研究会を履修予定であること。
+関連科目
+B6127 法律学/JURISPRUDENCE
+B6031 リーガルマインド/LEGAL MIND
+C1153 民法（総則・物権）/CIVIL CODE(GENERAL PROVISIONS AND REAL RIGHTS)
+</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修選抜については研究会で告知します。
+今学期履修していない場合は、担当教員にメールで問い合わせてください。
+</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+裁判傍聴や弁護士会館の見学を通じて裁判実務を知るとともに、重要判例の分析を行うことで、実際の社会における法の役割と機能を学ぶ。
+</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (質量分析を用いたメタボローム解析)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    平山　明由 
+                </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_47510?locale=ja</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+参加条件：2024年度春学期の先端生命科学研究会
+　　　　　（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+募集方法：　先端生命科学研究会で告知する。
+募集締切日：　2024/7/12
+</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+近年、様々な種類のメタボローム解析手法が登場し、数多くの代謝物を測定することが可能である。本プロジェクトでは、代表的なメタボローム解析手法について理解を深めるとともに、実際に装置を使ってメタボローム解析研究を行う。
+</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (持続可能な地域づくり)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    神成　淳司 
+                </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46855?locale=ja</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+前提科目・推奨
+B6003 未来構想ワークショップ/WORKSHOPS ON FUTURE VISION
+神成研究会
+</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+＊本授業は、神成研究会を履修している学生のみが対象です
+全国の自治体で、様々なSDGの取り組みが進められています。これらの中から、農業に関する取り組みを一つ選び、以下の項目を踏まえて評価しなさい
+・SDGs未来都市に選定されていること
+（以下を参照してください。
+https://www.chisou.go.jp/tiiki/kankyo/pdf/bessatsu1.pdf）
+・評価は、計画を踏まえて実施された内容に基づくものであること
+・他の自治体における類似取り組みとの比較に基づく評価であること
+</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+長崎県壱岐市において、同市のSDGs計画や持続可能な地域作りを目指した既存取り組みへのヒアリングを踏まえ、今後、同市において取り組むべき施策や具体的な方向性について検討します。
+</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (微生物バイオインフォマティクス)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    鈴木　治夫 
+                </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_44265?locale=ja</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+参加条件：2024年度春学期の先端生命科学研究会
+　　　　　（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+募集方法：　先端生命科学研究会で告知する。
+募集締切日：　2024/7/12
+</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                5
+              </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Public biology databases have expanded rapidly throughout recent years, having significant impact on the progress of modern biology. Bioinformatics is an essential tool when managing those data and have potential in being applied to various biology topics. Through the project, students will become able to understand and utilize practical data science skills, producing reproduceable and reliable research results using open-source tools. The project will help students acquire basic knowledge and skill of bioinformatics throughout the use of tools such as Unix Shell and RStudio.
+Throughout the project, students will apply the acquired bioinformatics skills to their individual research projects. Topics cover a variety of topics relating to urban microbiome, microbiology of the built environment (MoBE), antimicrobial resistance (AMR), biosynthetic gene clusters (BGCs), mobile genetic elements (MGEs) such as plasmids and viruses, zoonotic pathogens responsible for the emergence of infectious diseases in both humans and animals, one health, and cancer. The projects aim to utilize bioinformatics to make discoveries or solve issues related to each student’s research question.
+</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (応用ミクロ計量経済学の基礎と応用)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    中室　牧子 
+                </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_40573?locale=ja</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+データサイエンスI,IIを習得済みであり、研究会A（中室が担当）の履修・修得を推奨します。
+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+担当教員にメールで連絡。シラバスをお送りします。募集締め切り/Application Due：2024/8/10
+</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+この講義では、学生が研究テーマを決めて、応用ミクロ計量経済学の手法を用いたデータ解析を行い、政策提言を行います。特に、2022年度にノーベル経済学賞を受賞した経済学者らが体系化した「因果推論」の考え方を身に付け、相関関係と因果関係を区別して社会事象を判断できるようになることを目的とします。
+</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (機能性RNA研究プロジェクト)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    金井　昭夫 
+                </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_36640?locale=ja</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+参加条件： 2024年度春学期の先端生命科学研究会
+　　　　　（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+募集方法： 先端生命科学研究会で告知する。
+募集締切日： 2024/7/12
+</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+参加条件： 2024年度春学期の先端生命科学研究会
+　　　　　（荒川、金井、黒田、河野、杉本、鈴木、曽我、内藤、平山）履修者
+募集方法： 先端生命科学研究会で告知する。
+募集締切日： 2024/7/12
+</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                2
+              </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+前世紀の終わりごろから、数多くの生物種において、ゲノムの完全長塩基配列が決定されてきた。これらゲノムプロジェクトが科学の各分野に与えたインパクトは計り知れない。我々は生物種の設計図を手に入れたということもできるだろう。また、 21世紀になってから極めて沢山のNon-coding RNAが発見されたことで、セントラルドグマにおけるRNA分子そのものの働きが無視できない状況になってきた。本プロジェクトでは、遺伝子制御に関わる機能性RNAやRNA結合蛋白質、およびRNA関連酵素に焦点をあて、 RNAレベルで制御されるような制御機構やその分子進化に関して研究を行う。特に今回のプロジェクトでは、具体的なテーマとして以下(1)～(2)を設定する。(1) 転写の伸長や終結過程に関わるCSPの核酸結合能の解析。(2) ペグマタイト上に定着した細菌群集の16S rRNAアンプリコン解析。
+</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (地域資源化と課題解決（藤沢市遠藤地区）)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    飯盛　義徳 
+                </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_32002?locale=ja</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+　飯盛義徳研究会を受講しており、藤沢市遠藤地区の資源発見、地域の課題解決に関心があり、学んだ知見を地域づくりの研究やプロジェクトの実践にいかす意欲のある方。
+前提科目・推奨
+B6004 新事業創造ワークショップ/WORKSHOPS ON NEW BUSINESS CREATION
+C1027 まちづくり論/COMMUNITY-BASED PLANNING AND COMMUNITY RENOVATION
+</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+飯盛義徳研究会のWebサイトから、
+★7月23日（火）23時
+までに、自己紹介、参加理由や貢献できることを申請してください。詳しくは、飯盛義徳研究会のサイトを参照してください。
+</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                30
+              </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+　本特別研究プロジェクトでは、藤沢市や遠藤地区の方々とのコラボレーションによって、遠藤地区の魅力、資源を再認識し、地域の課題解決につながる具体的方策を探究することを目的とします。
+</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (ミュージアムをめぐる体験と生活史)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    清水　亮 
+                </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48884?locale=ja</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・フィールドで出会う人々に誠実に向き合い、自身の行動に責任をもつこと。
+前提科目・推奨
+清水亮研究会A
+A1101 研究会Ａ/SEMINAR A
+B6114 フィールドワーク法/FIELDWORK METHODS
+</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+春学期の清水亮「研究会A」もしくは「フィールドワーク法」の履修者・聴講生に限定します。応募多数の場合は、「研究会A」の履修者・継続的な聴講生が優先されます。
+本プロジェクトの参加を希望する場合は、6月30日（厳守）までに下記のe-mailに連絡してください。研究会Aの履修者・継続的な聴講生以外のエントリーの場合は、志望動機や具体的な調査対象への関心をメール本文に書き添えてください。
+</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                18
+              </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+茨城県土浦市・阿見町におけるミュージアム（フィールド・ミュージアムや小規模な歴史展示を含む）のフィールドワーク調査と、その担い手に対するインタビュー調査を行う。地域の文化資源の生成と維持に関するプロセスや課題、ならびにミュージアム訪問者の体験に関するデータを収集し、プレゼンテーションを行う。
+2泊3日の現地調査に加え、事前準備としてオンライン授業を行う。
+</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (日本政治外交フィールドワーク)</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    清水　唯一朗 
+                </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46217?locale=ja</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+・日本語、もしくは英語で、日本に関する自身の研究テーマについて報告、討論ができること。
+・現地集合、現地解散となるため、鉄道予約・宿泊先の確保などをはじめ、自身で移動を行えること。
+関連科目
+研究会B1（清水唯一朗担当）
+A1102 研究会Ｂ/SEMINAR B
+</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+7月16日（火）までに、報告予定のテーマについて、A4、PDFで1枚にまとめて担当教員 yuichiro@sfc.keio.ac.jp までメールでお送りください。また、報告を希望される言語（日本語or英語）を明記してください。
+</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+SFC日本政治外交研究会では、2007年以来、日本政治外交（史）の現場を訪ね、フィールドワークと研究発表を行うことで、学期中の教室でのゼミを超えた理解を深める機会を持っている。十分な事前調査のもと、現場で政治、外交、歴史を感じ、各自の研究、プロジェクトの展開に寄与することを目指す。
+</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (航空安全に学ぶ「機能するチーム」)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    大木　聖子 
+                </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_41331?locale=ja</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+オンラインでの履修が可能な条件下にあること．グループワークがあるため，多様な意見を尊重した態度で授業にのぞめること．
+関連科目
+C1012 社会安全政策（防災）/SOCIAL SECURITY POLICY(DISASTER)
+</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+下記のフォームから選抜課題に取り組んでください．
+〆切を2024年8月10日とします．
+https://docs.google.com/forms/d/e/1FAIpQLSdarwxGs3pgVkWhAXHATToNnLde1X_zPP2iboT1o2qN95S64w/viewform
+</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                100
+              </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+大地震などの突発災害では，同時多発的に多くの傷病者が発生したり，ベストがない状況下でベターな選択肢が何なのかを次々に迫られる状況になる．実際に，これらの状況を再現した訓練を学校などの施設で行うと，訓練を繰り返すごとに，個別の参加者の災害時対応能力はもちろん，チーム力そのものも向上していくようすが観察されている．
+このことは，瞬時の身の守り方や傷病者対応などの個別の災害時対応能力が高くとも，チームとして機能しなければ，最大のパフォーマンスを出せないことを示唆している．実際，大地震よりも低頻度である航空機事故や医療事故を想定して訓練をされている組織では，このチーム力を大事にしている．
+そこで本講義では，常に安全を基盤としてチームで事態に対処している航空安全の知見をもとに，機能するチームとは何かを考える．得られた知見を，履修者それぞれの所属するチームに適切に適用して，安全文化を築く礎とする．
+</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (創造みらい都市かまくらプロジェクト)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    田中　浩也 
+                    南雲　岳彦 
+                </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48882?locale=ja</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+JR鎌倉駅徒歩５分の「リサイクリエーション慶應鎌倉ラボ」まで期間中毎日通えること（交通費は自腹となります）
+前提科目・推奨
+B1001 総合政策学/POLICY MANAGEMENT STUDIES
+B1002 環境情報学/ENVIRONMENT AND INFORMATION STUDIES
+関連科目
+データサイエンス科目各種 (DS1
+ DS2)
+</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+約20名を目途に選抜を行います。下記の選抜課題を、8/2(金)23:59までに htanaka@sfc.keio.ac.jpまでPDFファイルで提出してください。結果は8月中旬までには連絡します。
+「ウェルビーイングに基づくスマートシティ政策デザイン」の履修選抜課題
+あなたは、鎌倉市の「まちづくりアドバイザー」として、市より委嘱を受け、鎌倉市民がより幸福観を感じられるまちをつくる政策の提案を求められています。
+どのようなことをすれば、鎌倉市民（鎌倉市の住民や鎌倉市に通勤や通学で通う他の自治体の住民（関係人口）を含む）の幸福観が高まるまちが実現すると思いますか？
+鎌倉市民のうちの適宜の人物像（性別・年齢・職業等・・・例：子育て中で、仕事と家庭・子育てで毎日忙しい30代のお母さん）を想定し、その人の幸福観を高めるためのまちづくり政策について簡潔に提案して下さい。
+出来る限り、デジタル田園都市国家構想で実際に活用されている「地域幸福度（ウェルビーイング）指標」を活用し、データ（エビデンス）に基づく提案をお願いします。
+提出資料は、A4用紙1~２枚以内とします。文章の他、写真やイラストを使って構いませんが、A4用紙1~２枚でまとめて下さい。
+地域幸福度（ウェルビーイング）指標へのリンク：　https://well-being.digital.go.jp/
+※上記リンクから入って、活用可能な鎌倉市のデータは実は二つありますが、今回使って欲しいのは、2023年度版の「個別調査」と言うサンプル数が1000を超えるものの方です。
+こちらではない全国調査の方を選んでしまうとサンプル数が100人程度とかなり少なくなってしまいますので、そちらは使用しないようにしてください。
+評価基準
+①	鎌倉市の課題の抽出度合い（もしくは幸福度を高めるポイントへの着眼の質）
+②	ペルソナの切り出し方の匠さ
+③	データ活用のレベル
+④	政策提言の質
+⑤	資料のまとめ方の質（視覚的な表現の活用等、効果的な資料作成となっているかを含む）
+</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                20
+              </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+慶應義塾大学SFC研究所と鎌倉市は2020年に「創造みらい都市に関する包括連携協定」を締結しており、データやテクノロジーに基づく市民の課題解決力の向上や、資源循環型デザインに取り組んでいます。その、鎌倉市との連携枠組みのもと、今年度は「ウェルビーイングに基づくスマートシティ政策デザイン」をテーマに取り扱います。
+デジタル庁が行っている「地域幸福度(Well-Being)指標」のデータをもとに、社会科学的な分析を通じて、今回の対象自治体である鎌倉市のまちを良くするための新たな政策を立案するための、約１週間に渡るワークショップです。
+場所は、鎌倉市大町にある慶應鎌倉サテライトラボで実施します。本ワークショップは、研究会に所属していない学生、学部１年生でも応募可能です。下記の履修選抜試験を受けてください。
+講師は、慶應鎌倉ラボのラボ長である田中浩也環境情報学部教授と、地域幸福度にもとづく政策デザイン、まちづくりの第一人者である南雲岳彦特別招聘教授が担当します。データをもとにまちの様態を科学的に分析し、そこからロジカルな推論と創造性を加味して新たなまちづくりの提案を行う手法を体得したい学生を、総合・環境かかわらず広く募集します。
+</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (データ×アイディアで描く理想のまち)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    篠原　舟吾 
+                </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_48147?locale=ja</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+前提科目・推奨
+本プロジェクト担当教員が提供する『地方自治論』『方法論探求』『研究会B(1)』『研究会B(2)』の履修を推奨する。
+C1052 地方自治論/GOVERNANCE AND INSTITUTIONS(LOCAL GOVERNMENT)
+B6123 方法論探究/METHODOLOGY STUDY
+A1102 研究会Ｂ/SEMINAR B
+</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+本プロジェクトの参加を希望する場合は、6月28日までに下記のe-mailに連絡してください。担当教員の研究会を履修していることを推奨します。
+</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                10
+              </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本特別研究プロジェクトは、以下3つの活動により構成されます：
+(i) 茨城県水戸市にて日帰りの事前調査及び2泊3日の本調査を実施する。
+(ii) データ分析を用い2040年に向けた水戸市のまちづくり案を共同執筆する。
+(iii) 執筆したまちづくり案を、和歌山県主催の第8回データ利活用コンペティション「2040年頃の理想のまち」にて発表するため提出する。
+</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (躓きを乗越えるための学習補助教材の開発)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    今井　むつみ 
+                </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_47496?locale=ja</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年度春学期に今井研の研究会Aを履修していること
+前提科目・推奨
+今井むつみ 研究会A
+A1101 研究会Ａ/SEMINAR A
+</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修希望者は7月19日までに担当教員にメールで連絡をし、面接の日程を決めること。オンライン面接により履修を許可する
+</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+本特別プロジェクトでは、子供の学力不振の原因となる、数の理解とことばの理解の両面から問題点を考え、学校における正規の教材を補助する教材ゲームの開発を探求する。活動の大部分は対面で行うが、必要に応じて適宜オンライン授業も行う。小学校高学年および中学生を対象とした補助教材をグループで開発することを最終ゴールとする。最終回は教室で発表を行う。
+</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (アラビア語キャンプ)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    山本　薫 
+                    アルマンスール，　アフマド 
+                </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46856?locale=ja</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+アラビア語ベーシック1・2、インテンシブ1・2、スキル1～4のいずれかの受講生。全日参加し、既定の課題を提出する事。
+前提科目・推奨
+アラビア語ベーシック1・2、インテンシブ1・2、スキル1～4のいずれかの受講生
+B2171 アラビア語ベーシック１/ARABIC BASIC 1
+B2172 アラビア語ベーシック２/ARABIC BASIC 2
+B2271 アラビア語インテンシブ１/ARABIC INTENSIVE 1
+B2272 アラビア語インテンシブ２/ARABIC INTENSIVE 2
+B2371 アラビア語スキル/ARABIC SKILL
+</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+7月5日までにグーグルフォーム（https://forms.gle/ryAcpqS4sUuQapde8）でお申し込みください。選抜課題の提出は必要ありません。
+</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                35
+              </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+アラビア語ネイティブの講師やTAと共に、アラビア語漬けの３日間を過ごす特別授業です。言語スキルの向上だけでなく、様々な体験講座を通じてアラブ文化への理解を深めることを目指します。
+</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (マチモノツクリ制作実践)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    田中　浩也 
+                </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46853?locale=ja</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+自らの研究関心をもとに、Conference on 4D and Functional Fabrication 2024に、発表予稿をすでに提出済みであること。もしくは、秋学期以降に都市エレメントの社会実験を行うことが決まっていること。
+前提科目・推奨
+C2107 デジタルファブリケーション/DIGITAL FABRICATION
+</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            オンライン（ライブ）
+          </t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+8/2までに田中浩也までメールしてください。個々のConference on 4D and Functional Fabrication 2024への発表予稿および、秋学期以降に行う都市エレメントの社会実験の計画を確認し、制作に向かえる準備状況が整っているかどうかを確認するため、選抜試験を個別に行います。
+</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                15
+              </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+2024年10/24,25に開催されるConference on 4D and Functional Fabrication 2024 (https://sig4dff.org/conference/2023/)での研究発表および、それに付随するまちでの展示実験のために、大型複合３Dプリンタを用いて「都市エレメント」を実際に制作する実習を行う。使用する機材に応じて、SFC、鎌倉ラボ、ほか都内工房等で分散的に制作作業が行われることを想定し、オンライン（ライブ）での集合とする。
+</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>特別研究プロジェクトＢ (地球温暖化と突風回数の関係)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                    宮本　佳明 
+                </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://syllabus.sfc.keio.ac.jp/courses/2024_46253?locale=ja</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+気象に興味があり、全日程に参加できること。気象学研究会に所属する学生を優先する。
+前提科目・推奨
+C2133 地球システムＢ/EARTH SYSTEM B
+関連科目
+C2132 地球システムＡ/EARTH SYSTEM A、C2011 環境センシング論/THEORY OF ENVIRONMENT SENSING TECHNOLOGY
+</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            対面
+          </t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+              履修制限あり
+                抽選以外
+履修希望動機を100~200字でまとめて、7月10日までに宮本（ymiya@sfc.keio.ac.jp）にEmailで提出
+</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+                25
+              </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+日本では毎年のように梅雨前線や台風、線状降水帯による豪雨が引き起こす災害が生じている。実際にデータからも、過去数十年で豪雨の頻度が増加していることが分かっており、これは地球温暖化が要因であり、今後も増加すると予測されている。雨と共に大きな被害をもたらすのが風、特に突然吹く強い風（突風）である。突風は、走行する車や建物に加え、船舶の貨物の転倒や、風力発電機の損傷も引き起こし、その被害額は非常に大きい。一般的に、風の強さと雨量は比例関係にあり、強い風が吹く時は大雨の時が多い。地球温暖化によって大雨の回数が増えていることから、突風の回数も増えている可能性があり、本プロジェクトで検証を行う。風が吹く要因として地形が大きく関わっている。そこで突風を分析するためには、複雑な地形と海の両方の影響を受ける場所が望ましい。そこで本プロジェクトでは、瀬戸内の地形と島の両方の特徴を持ち、レーダーなど常時測定をしている観測データも充実していることから、淡路島で観測を実施しつつ、過去数十年のデータを分析する。
+</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>未定</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
